--- a/volatility/src/3rd.xlsx
+++ b/volatility/src/3rd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atsushi_mld/git/volatility/volatility/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAA9C56-D842-AB45-AB4E-C5F68806EB3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A1F25F-946A-094A-BD40-E0D017B549A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11360" yWindow="460" windowWidth="26100" windowHeight="21140" tabRatio="742" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11360" yWindow="460" windowWidth="26100" windowHeight="21140" tabRatio="742" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jpy" sheetId="51" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>amount</t>
     <phoneticPr fontId="1"/>
@@ -144,7 +144,71 @@
     <t>AUDJPY</t>
   </si>
   <si>
-    <t>USDCHF</t>
+    <t>AUDCHF</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AUDNZD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AUDUSD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CADJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CHFJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>EURAUD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>EURCHF</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>EURGBP</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>EURUSD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GBPCHF</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GBPJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GBPUSD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NZDJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NZDUSD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>USDCAD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>USDJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GBPAUD</t>
   </si>
 </sst>
 </file>
@@ -612,7 +676,7 @@
   <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -636,7 +700,7 @@
         <v>735</v>
       </c>
       <c r="J1" s="1">
-        <f>VLOOKUP(B2,median!A1:B4,2)</f>
+        <f>VLOOKUP(B2,median!A1:B20,2)</f>
         <v>1.5</v>
       </c>
       <c r="K1" s="1">
@@ -858,8 +922,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -883,12 +947,12 @@
         <v>735</v>
       </c>
       <c r="J1" s="1">
-        <f>VLOOKUP(B2,median!A1:B4,2)</f>
-        <v>1.2</v>
+        <f>VLOOKUP(B2,median!A1:B20,2)</f>
+        <v>3.3</v>
       </c>
       <c r="K1" s="1">
         <f>1/J1</f>
-        <v>0.83333333333333337</v>
+        <v>0.30303030303030304</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>16</v>
@@ -896,7 +960,7 @@
     </row>
     <row r="2" spans="2:14" ht="24" customHeight="1">
       <c r="B2" s="10" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>10</v>
@@ -906,7 +970,7 @@
       </c>
       <c r="J2" s="1" t="str">
         <f>MID(B2,4,3)</f>
-        <v>CHF</v>
+        <v>AUD</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>17</v>
@@ -917,11 +981,11 @@
       <c r="C3" s="6"/>
       <c r="J3" s="1">
         <f>VLOOKUP(J2,'jpy rate'!A1:B2,2)</f>
-        <v>109.5</v>
+        <v>75</v>
       </c>
       <c r="K3" s="1">
         <f>100/J3</f>
-        <v>0.91324200913242004</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="24" customHeight="1">
@@ -935,7 +999,7 @@
       <c r="C5" s="6"/>
       <c r="K5" s="1">
         <f>I1*K1*K3</f>
-        <v>559.36073059360729</v>
+        <v>296.96969696969694</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>3</v>
@@ -944,12 +1008,12 @@
     <row r="6" spans="2:14" ht="24" customHeight="1">
       <c r="B6" s="2">
         <f>INT(K6*100)</f>
-        <v>8390</v>
+        <v>4454</v>
       </c>
       <c r="C6" s="6"/>
       <c r="K6" s="1">
         <f>K5*3/20</f>
-        <v>83.904109589041099</v>
+        <v>44.54545454545454</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>4</v>
@@ -960,7 +1024,7 @@
       <c r="C7" s="6"/>
       <c r="I7" s="1">
         <f>J1/100</f>
-        <v>1.2E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="24" customHeight="1">
@@ -968,7 +1032,7 @@
       <c r="C8" s="6"/>
       <c r="I8" s="1">
         <f>ROUND(I7/amount!B2,4)</f>
-        <v>6.0000000000000001E-3</v>
+        <v>1.6500000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="24" customHeight="1">
@@ -977,7 +1041,7 @@
       </c>
       <c r="C9" s="9">
         <f>IF($C$2="buy",I11,J11)</f>
-        <v>1.1879999999999999</v>
+        <v>1.167</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="24" customHeight="1">
@@ -986,7 +1050,7 @@
       </c>
       <c r="C10" s="9">
         <f>IF($C$2="buy",I12,J12)</f>
-        <v>1.212</v>
+        <v>1.2329999999999999</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -996,11 +1060,11 @@
       <c r="D11" s="3"/>
       <c r="I11" s="1">
         <f>D2+I7</f>
-        <v>1.212</v>
+        <v>1.2329999999999999</v>
       </c>
       <c r="J11" s="1">
         <f>I12</f>
-        <v>1.1879999999999999</v>
+        <v>1.167</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="24" customHeight="1">
@@ -1009,15 +1073,15 @@
       </c>
       <c r="C12" s="9">
         <f>IF($C$2="buy",I14,J14)</f>
-        <v>1.206</v>
+        <v>1.2164999999999999</v>
       </c>
       <c r="I12" s="1">
         <f>D2-I7</f>
-        <v>1.1879999999999999</v>
+        <v>1.167</v>
       </c>
       <c r="J12" s="1">
         <f>I11</f>
-        <v>1.212</v>
+        <v>1.2329999999999999</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="24" customHeight="1">
@@ -1026,7 +1090,7 @@
       </c>
       <c r="C13" s="9">
         <f>IF($C$2="buy",I15,J15)</f>
-        <v>1.218</v>
+        <v>1.2494999999999998</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="24" customHeight="1">
@@ -1035,15 +1099,15 @@
       </c>
       <c r="C14" s="9">
         <f>IF($C$2="buy",I16,J16)</f>
-        <v>1.194</v>
+        <v>1.1835</v>
       </c>
       <c r="I14" s="1">
         <f>D2-I8</f>
-        <v>1.194</v>
+        <v>1.1835</v>
       </c>
       <c r="J14" s="1">
         <f>D2+I8</f>
-        <v>1.206</v>
+        <v>1.2164999999999999</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="24" customHeight="1">
@@ -1051,11 +1115,11 @@
       <c r="C15" s="6"/>
       <c r="I15" s="1">
         <f>I14-I7</f>
-        <v>1.1819999999999999</v>
+        <v>1.1505000000000001</v>
       </c>
       <c r="J15" s="1">
         <f>J14+I7</f>
-        <v>1.218</v>
+        <v>1.2494999999999998</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="24" customHeight="1">
@@ -1063,11 +1127,11 @@
       <c r="C16" s="6"/>
       <c r="I16" s="1">
         <f>I14+I7</f>
-        <v>1.206</v>
+        <v>1.2164999999999999</v>
       </c>
       <c r="J16" s="1">
         <f>J14-I7</f>
-        <v>1.194</v>
+        <v>1.1835</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="24" customHeight="1">
@@ -1197,10 +1261,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="21" customHeight="1"/>
@@ -1210,34 +1274,162 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B1" s="5">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="5">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5">
-        <v>3.3</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="21" customHeight="1">
       <c r="A4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="21" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="21" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="21" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="21" customHeight="1">
+      <c r="A11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="21" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="21" customHeight="1">
+      <c r="A13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="21" customHeight="1">
+      <c r="A14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="21" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="21" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="21" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="21" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="21" customHeight="1">
+      <c r="A19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B19" s="5">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="21" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/volatility/src/3rd.xlsx
+++ b/volatility/src/3rd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr date1904="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atsushi_mld/git/volatility/volatility/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A1F25F-946A-094A-BD40-E0D017B549A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A98B68-889F-084E-81F1-3AB904F0881E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11360" yWindow="460" windowWidth="26100" windowHeight="21140" tabRatio="742" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11360" yWindow="460" windowWidth="26100" windowHeight="21140" tabRatio="742" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jpy" sheetId="51" r:id="rId1"/>
@@ -141,9 +141,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>AUDJPY</t>
-  </si>
-  <si>
     <t>AUDCHF</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -208,7 +205,10 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>GBPAUD</t>
+    <t>EURJPY</t>
+  </si>
+  <si>
+    <t>USDCHF</t>
   </si>
 </sst>
 </file>
@@ -676,7 +676,7 @@
   <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -697,15 +697,15 @@
       </c>
       <c r="I1" s="1">
         <f>amount!B1</f>
-        <v>735</v>
+        <v>1000</v>
       </c>
       <c r="J1" s="1">
         <f>VLOOKUP(B2,median!A1:B20,2)</f>
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="K1" s="1">
         <f>1/J1</f>
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>14</v>
@@ -713,13 +713,13 @@
     </row>
     <row r="2" spans="2:14" ht="24" customHeight="1">
       <c r="B2" s="10" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="10">
-        <v>100</v>
+        <v>119.6893</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>MID(B2,4,3)</f>
@@ -751,7 +751,7 @@
       <c r="C5" s="6"/>
       <c r="K5" s="1">
         <f>I1*K1*K3</f>
-        <v>490</v>
+        <v>625</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>3</v>
@@ -760,12 +760,12 @@
     <row r="6" spans="2:14" ht="24" customHeight="1">
       <c r="B6" s="2">
         <f>INT(K6*100)</f>
-        <v>7350</v>
+        <v>9375</v>
       </c>
       <c r="C6" s="6"/>
       <c r="K6" s="1">
         <f>K5*3/20</f>
-        <v>73.5</v>
+        <v>93.75</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>4</v>
@@ -776,7 +776,7 @@
       <c r="C7" s="6"/>
       <c r="I7" s="1">
         <f>J1</f>
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="24" customHeight="1">
@@ -784,7 +784,7 @@
       <c r="C8" s="6"/>
       <c r="I8" s="1">
         <f>ROUND(I7/amount!B2,2)</f>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="24" customHeight="1">
@@ -793,7 +793,7 @@
       </c>
       <c r="C9" s="9">
         <f>IF($C$2="buy",I11,J11)</f>
-        <v>98.5</v>
+        <v>118.08930000000001</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="24" customHeight="1">
@@ -802,7 +802,7 @@
       </c>
       <c r="C10" s="9">
         <f>IF($C$2="buy",I12,J12)</f>
-        <v>101.5</v>
+        <v>121.2893</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -812,11 +812,11 @@
       <c r="D11" s="3"/>
       <c r="I11" s="1">
         <f>D2+I7</f>
-        <v>101.5</v>
+        <v>121.2893</v>
       </c>
       <c r="J11" s="1">
         <f>I12</f>
-        <v>98.5</v>
+        <v>118.08930000000001</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="24" customHeight="1">
@@ -825,15 +825,15 @@
       </c>
       <c r="C12" s="9">
         <f>IF($C$2="buy",I14,J14)</f>
-        <v>100.75</v>
+        <v>120.4893</v>
       </c>
       <c r="I12" s="1">
         <f>D2-I7</f>
-        <v>98.5</v>
+        <v>118.08930000000001</v>
       </c>
       <c r="J12" s="1">
         <f>I11</f>
-        <v>101.5</v>
+        <v>121.2893</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="24" customHeight="1">
@@ -842,7 +842,7 @@
       </c>
       <c r="C13" s="9">
         <f>IF($C$2="buy",I15,J15)</f>
-        <v>102.25</v>
+        <v>122.08929999999999</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="24" customHeight="1">
@@ -851,15 +851,15 @@
       </c>
       <c r="C14" s="9">
         <f>IF($C$2="buy",I16,J16)</f>
-        <v>99.25</v>
+        <v>118.88930000000001</v>
       </c>
       <c r="I14" s="1">
         <f>D2-I8</f>
-        <v>99.25</v>
+        <v>118.88930000000001</v>
       </c>
       <c r="J14" s="1">
         <f>D2+I8</f>
-        <v>100.75</v>
+        <v>120.4893</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="24" customHeight="1">
@@ -867,11 +867,11 @@
       <c r="C15" s="6"/>
       <c r="I15" s="1">
         <f>I14-I7</f>
-        <v>97.75</v>
+        <v>117.28930000000001</v>
       </c>
       <c r="J15" s="1">
         <f>J14+I7</f>
-        <v>102.25</v>
+        <v>122.08929999999999</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="24" customHeight="1">
@@ -879,11 +879,11 @@
       <c r="C16" s="6"/>
       <c r="I16" s="1">
         <f>I14+I7</f>
-        <v>100.75</v>
+        <v>120.4893</v>
       </c>
       <c r="J16" s="1">
         <f>J14-I7</f>
-        <v>99.25</v>
+        <v>118.88930000000001</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="24" customHeight="1">
@@ -922,8 +922,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:N20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -944,15 +944,15 @@
       </c>
       <c r="I1" s="1">
         <f>amount!B1</f>
-        <v>735</v>
+        <v>1000</v>
       </c>
       <c r="J1" s="1">
         <f>VLOOKUP(B2,median!A1:B20,2)</f>
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="K1" s="1">
         <f>1/J1</f>
-        <v>0.30303030303030304</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>16</v>
@@ -966,11 +966,11 @@
         <v>10</v>
       </c>
       <c r="D2" s="10">
-        <v>1.2</v>
+        <v>0.99056</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>MID(B2,4,3)</f>
-        <v>AUD</v>
+        <v>CHF</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>17</v>
@@ -981,11 +981,11 @@
       <c r="C3" s="6"/>
       <c r="J3" s="1">
         <f>VLOOKUP(J2,'jpy rate'!A1:B2,2)</f>
-        <v>75</v>
+        <v>109.8</v>
       </c>
       <c r="K3" s="1">
         <f>100/J3</f>
-        <v>1.3333333333333333</v>
+        <v>0.91074681238615662</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="24" customHeight="1">
@@ -999,7 +999,7 @@
       <c r="C5" s="6"/>
       <c r="K5" s="1">
         <f>I1*K1*K3</f>
-        <v>296.96969696969694</v>
+        <v>758.95567698846389</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>3</v>
@@ -1008,12 +1008,12 @@
     <row r="6" spans="2:14" ht="24" customHeight="1">
       <c r="B6" s="2">
         <f>INT(K6*100)</f>
-        <v>4454</v>
+        <v>11384</v>
       </c>
       <c r="C6" s="6"/>
       <c r="K6" s="1">
         <f>K5*3/20</f>
-        <v>44.54545454545454</v>
+        <v>113.84335154826958</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>4</v>
@@ -1024,7 +1024,7 @@
       <c r="C7" s="6"/>
       <c r="I7" s="1">
         <f>J1/100</f>
-        <v>3.3000000000000002E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="24" customHeight="1">
@@ -1032,7 +1032,7 @@
       <c r="C8" s="6"/>
       <c r="I8" s="1">
         <f>ROUND(I7/amount!B2,4)</f>
-        <v>1.6500000000000001E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="24" customHeight="1">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C9" s="9">
         <f>IF($C$2="buy",I11,J11)</f>
-        <v>1.167</v>
+        <v>0.97855999999999999</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="24" customHeight="1">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C10" s="9">
         <f>IF($C$2="buy",I12,J12)</f>
-        <v>1.2329999999999999</v>
+        <v>1.0025599999999999</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -1060,11 +1060,11 @@
       <c r="D11" s="3"/>
       <c r="I11" s="1">
         <f>D2+I7</f>
-        <v>1.2329999999999999</v>
+        <v>1.0025599999999999</v>
       </c>
       <c r="J11" s="1">
         <f>I12</f>
-        <v>1.167</v>
+        <v>0.97855999999999999</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="24" customHeight="1">
@@ -1073,15 +1073,15 @@
       </c>
       <c r="C12" s="9">
         <f>IF($C$2="buy",I14,J14)</f>
-        <v>1.2164999999999999</v>
+        <v>0.99656</v>
       </c>
       <c r="I12" s="1">
         <f>D2-I7</f>
-        <v>1.167</v>
+        <v>0.97855999999999999</v>
       </c>
       <c r="J12" s="1">
         <f>I11</f>
-        <v>1.2329999999999999</v>
+        <v>1.0025599999999999</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="24" customHeight="1">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C13" s="9">
         <f>IF($C$2="buy",I15,J15)</f>
-        <v>1.2494999999999998</v>
+        <v>1.0085599999999999</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="24" customHeight="1">
@@ -1099,15 +1099,15 @@
       </c>
       <c r="C14" s="9">
         <f>IF($C$2="buy",I16,J16)</f>
-        <v>1.1835</v>
+        <v>0.98455999999999999</v>
       </c>
       <c r="I14" s="1">
         <f>D2-I8</f>
-        <v>1.1835</v>
+        <v>0.98455999999999999</v>
       </c>
       <c r="J14" s="1">
         <f>D2+I8</f>
-        <v>1.2164999999999999</v>
+        <v>0.99656</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="24" customHeight="1">
@@ -1115,11 +1115,11 @@
       <c r="C15" s="6"/>
       <c r="I15" s="1">
         <f>I14-I7</f>
-        <v>1.1505000000000001</v>
+        <v>0.97255999999999998</v>
       </c>
       <c r="J15" s="1">
         <f>J14+I7</f>
-        <v>1.2494999999999998</v>
+        <v>1.0085599999999999</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="24" customHeight="1">
@@ -1127,11 +1127,11 @@
       <c r="C16" s="6"/>
       <c r="I16" s="1">
         <f>I14+I7</f>
-        <v>1.2164999999999999</v>
+        <v>0.99656</v>
       </c>
       <c r="J16" s="1">
         <f>J14-I7</f>
-        <v>1.1835</v>
+        <v>0.98455999999999999</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="24" customHeight="1">
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5">
-        <v>735</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1">
@@ -1232,7 +1232,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="5">
-        <v>75</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1">
@@ -1240,7 +1240,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="5">
-        <v>109.5</v>
+        <v>109.8</v>
       </c>
     </row>
   </sheetData>
@@ -1263,7 +1263,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1274,7 +1274,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5">
         <v>1.1000000000000001</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5">
         <v>1.1000000000000001</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="4" spans="1:2" ht="21" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="5" spans="1:2" ht="21" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5">
         <v>1.4</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="6" spans="1:2" ht="21" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5">
         <v>1.3</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="7" spans="1:2" ht="21" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5">
         <v>2.1</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="8" spans="1:2" ht="21" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="9" spans="1:2" ht="21" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5">
         <v>1.2</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="11" spans="1:2" ht="21" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5">
         <v>1.3</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="13" spans="1:2" ht="21" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5">
         <v>2</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="14" spans="1:2" ht="21" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="5">
         <v>2.6</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="15" spans="1:2" ht="21" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="5">
         <v>2.1</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="16" spans="1:2" ht="21" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="5">
         <v>1.3</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="17" spans="1:2" ht="21" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="5">
         <v>1.2</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="18" spans="1:2" ht="21" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="5">
         <v>1.5</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="20" spans="1:2" ht="21" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="5">
         <v>1.3</v>
